--- a/data/134/DEUSTATIS/Foreign trade - Value Index_historical.xlsx
+++ b/data/134/DEUSTATIS/Foreign trade - Value Index_historical.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:ACY4"/>
+  <dimension ref="A1:ADB4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4257,6 +4257,21 @@
           <t>2021-10</t>
         </is>
       </c>
+      <c r="ACZ1" s="1" t="inlineStr">
+        <is>
+          <t>2021-11</t>
+        </is>
+      </c>
+      <c r="ADA1" s="1" t="inlineStr">
+        <is>
+          <t>2021-12</t>
+        </is>
+      </c>
+      <c r="ADB1" s="1" t="inlineStr">
+        <is>
+          <t>2022-01</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -6388,65 +6403,41 @@
       <c r="AAG2" t="n">
         <v>108.8</v>
       </c>
-      <c r="AAH2" t="inlineStr">
-        <is>
-          <t>106.1</t>
-        </is>
-      </c>
-      <c r="AAI2" t="inlineStr">
-        <is>
-          <t>106.0</t>
-        </is>
-      </c>
-      <c r="AAJ2" t="inlineStr">
-        <is>
-          <t>105.3</t>
-        </is>
-      </c>
-      <c r="AAK2" t="inlineStr">
-        <is>
-          <t>104.2</t>
-        </is>
-      </c>
-      <c r="AAL2" t="inlineStr">
-        <is>
-          <t>104.3</t>
-        </is>
-      </c>
-      <c r="AAM2" t="inlineStr">
-        <is>
-          <t>106.1</t>
-        </is>
-      </c>
-      <c r="AAN2" t="inlineStr">
-        <is>
-          <t>105.7</t>
-        </is>
-      </c>
-      <c r="AAO2" t="inlineStr">
-        <is>
-          <t>104.9</t>
-        </is>
-      </c>
-      <c r="AAP2" t="inlineStr">
-        <is>
-          <t>105.6</t>
-        </is>
-      </c>
-      <c r="AAQ2" t="inlineStr">
-        <is>
-          <t>108.3</t>
-        </is>
-      </c>
-      <c r="AAR2" t="inlineStr">
-        <is>
-          <t>108.1</t>
-        </is>
-      </c>
-      <c r="AAS2" t="inlineStr">
-        <is>
-          <t>112.1</t>
-        </is>
+      <c r="AAH2" t="n">
+        <v>106.1</v>
+      </c>
+      <c r="AAI2" t="n">
+        <v>106</v>
+      </c>
+      <c r="AAJ2" t="n">
+        <v>105.3</v>
+      </c>
+      <c r="AAK2" t="n">
+        <v>104.2</v>
+      </c>
+      <c r="AAL2" t="n">
+        <v>104.3</v>
+      </c>
+      <c r="AAM2" t="n">
+        <v>106.1</v>
+      </c>
+      <c r="AAN2" t="n">
+        <v>105.7</v>
+      </c>
+      <c r="AAO2" t="n">
+        <v>104.9</v>
+      </c>
+      <c r="AAP2" t="n">
+        <v>105.6</v>
+      </c>
+      <c r="AAQ2" t="n">
+        <v>108.3</v>
+      </c>
+      <c r="AAR2" t="n">
+        <v>108.1</v>
+      </c>
+      <c r="AAS2" t="n">
+        <v>112.1</v>
       </c>
       <c r="AAT2" t="inlineStr">
         <is>
@@ -6736,6 +6727,21 @@
       <c r="ACY2" t="inlineStr">
         <is>
           <t>134.5</t>
+        </is>
+      </c>
+      <c r="ACZ2" t="inlineStr">
+        <is>
+          <t>135.4</t>
+        </is>
+      </c>
+      <c r="ADA2" t="inlineStr">
+        <is>
+          <t>135.6</t>
+        </is>
+      </c>
+      <c r="ADB2" t="inlineStr">
+        <is>
+          <t>132.7</t>
         </is>
       </c>
     </row>
@@ -8869,331 +8875,307 @@
       <c r="AAG3" t="n">
         <v>111.7</v>
       </c>
-      <c r="AAH3" t="inlineStr">
+      <c r="AAH3" t="n">
+        <v>107.2</v>
+      </c>
+      <c r="AAI3" t="n">
+        <v>107.7</v>
+      </c>
+      <c r="AAJ3" t="n">
+        <v>109.2</v>
+      </c>
+      <c r="AAK3" t="n">
+        <v>106.9</v>
+      </c>
+      <c r="AAL3" t="n">
+        <v>108.3</v>
+      </c>
+      <c r="AAM3" t="n">
+        <v>109.7</v>
+      </c>
+      <c r="AAN3" t="n">
+        <v>108.2</v>
+      </c>
+      <c r="AAO3" t="n">
+        <v>108.8</v>
+      </c>
+      <c r="AAP3" t="n">
+        <v>108</v>
+      </c>
+      <c r="AAQ3" t="n">
+        <v>109.4</v>
+      </c>
+      <c r="AAR3" t="n">
+        <v>109.4</v>
+      </c>
+      <c r="AAS3" t="n">
+        <v>112.5</v>
+      </c>
+      <c r="AAT3" t="inlineStr">
+        <is>
+          <t>109.6</t>
+        </is>
+      </c>
+      <c r="AAU3" t="inlineStr">
+        <is>
+          <t>111.8</t>
+        </is>
+      </c>
+      <c r="AAV3" t="inlineStr">
+        <is>
+          <t>113.1</t>
+        </is>
+      </c>
+      <c r="AAW3" t="inlineStr">
+        <is>
+          <t>111.4</t>
+        </is>
+      </c>
+      <c r="AAX3" t="inlineStr">
+        <is>
+          <t>111.7</t>
+        </is>
+      </c>
+      <c r="AAY3" t="inlineStr">
+        <is>
+          <t>109.6</t>
+        </is>
+      </c>
+      <c r="AAZ3" t="inlineStr">
+        <is>
+          <t>112.1</t>
+        </is>
+      </c>
+      <c r="ABA3" t="inlineStr">
+        <is>
+          <t>110.9</t>
+        </is>
+      </c>
+      <c r="ABB3" t="inlineStr">
+        <is>
+          <t>111.3</t>
+        </is>
+      </c>
+      <c r="ABC3" t="inlineStr">
+        <is>
+          <t>107.9</t>
+        </is>
+      </c>
+      <c r="ABD3" t="inlineStr">
+        <is>
+          <t>111.4</t>
+        </is>
+      </c>
+      <c r="ABE3" t="inlineStr">
+        <is>
+          <t>112.1</t>
+        </is>
+      </c>
+      <c r="ABF3" t="inlineStr">
+        <is>
+          <t>108.9</t>
+        </is>
+      </c>
+      <c r="ABG3" t="inlineStr">
+        <is>
+          <t>110.4</t>
+        </is>
+      </c>
+      <c r="ABH3" t="inlineStr">
+        <is>
+          <t>112.1</t>
+        </is>
+      </c>
+      <c r="ABI3" t="inlineStr">
+        <is>
+          <t>109.9</t>
+        </is>
+      </c>
+      <c r="ABJ3" t="inlineStr">
         <is>
           <t>107.2</t>
         </is>
       </c>
-      <c r="AAI3" t="inlineStr">
-        <is>
-          <t>107.7</t>
-        </is>
-      </c>
-      <c r="AAJ3" t="inlineStr">
-        <is>
-          <t>109.2</t>
-        </is>
-      </c>
-      <c r="AAK3" t="inlineStr">
-        <is>
-          <t>106.9</t>
-        </is>
-      </c>
-      <c r="AAL3" t="inlineStr">
-        <is>
-          <t>108.3</t>
-        </is>
-      </c>
-      <c r="AAM3" t="inlineStr">
-        <is>
-          <t>109.7</t>
-        </is>
-      </c>
-      <c r="AAN3" t="inlineStr">
-        <is>
-          <t>108.2</t>
-        </is>
-      </c>
-      <c r="AAO3" t="inlineStr">
-        <is>
-          <t>108.8</t>
-        </is>
-      </c>
-      <c r="AAP3" t="inlineStr">
-        <is>
-          <t>108.0</t>
-        </is>
-      </c>
-      <c r="AAQ3" t="inlineStr">
-        <is>
-          <t>109.4</t>
-        </is>
-      </c>
-      <c r="AAR3" t="inlineStr">
-        <is>
-          <t>109.4</t>
-        </is>
-      </c>
-      <c r="AAS3" t="inlineStr">
-        <is>
-          <t>112.5</t>
-        </is>
-      </c>
-      <c r="AAT3" t="inlineStr">
-        <is>
-          <t>109.6</t>
-        </is>
-      </c>
-      <c r="AAU3" t="inlineStr">
-        <is>
-          <t>111.8</t>
-        </is>
-      </c>
-      <c r="AAV3" t="inlineStr">
+      <c r="ABK3" t="inlineStr">
+        <is>
+          <t>114.0</t>
+        </is>
+      </c>
+      <c r="ABL3" t="inlineStr">
+        <is>
+          <t>115.2</t>
+        </is>
+      </c>
+      <c r="ABM3" t="inlineStr">
+        <is>
+          <t>113.3</t>
+        </is>
+      </c>
+      <c r="ABN3" t="inlineStr">
+        <is>
+          <t>115.7</t>
+        </is>
+      </c>
+      <c r="ABO3" t="inlineStr">
+        <is>
+          <t>114.0</t>
+        </is>
+      </c>
+      <c r="ABP3" t="inlineStr">
+        <is>
+          <t>115.1</t>
+        </is>
+      </c>
+      <c r="ABQ3" t="inlineStr">
+        <is>
+          <t>118.3</t>
+        </is>
+      </c>
+      <c r="ABR3" t="inlineStr">
+        <is>
+          <t>113.5</t>
+        </is>
+      </c>
+      <c r="ABS3" t="inlineStr">
+        <is>
+          <t>113.5</t>
+        </is>
+      </c>
+      <c r="ABT3" t="inlineStr">
+        <is>
+          <t>114.7</t>
+        </is>
+      </c>
+      <c r="ABU3" t="inlineStr">
+        <is>
+          <t>115.1</t>
+        </is>
+      </c>
+      <c r="ABV3" t="inlineStr">
+        <is>
+          <t>115.0</t>
+        </is>
+      </c>
+      <c r="ABW3" t="inlineStr">
+        <is>
+          <t>115.5</t>
+        </is>
+      </c>
+      <c r="ABX3" t="inlineStr">
+        <is>
+          <t>116.4</t>
+        </is>
+      </c>
+      <c r="ABY3" t="inlineStr">
+        <is>
+          <t>115.9</t>
+        </is>
+      </c>
+      <c r="ABZ3" t="inlineStr">
+        <is>
+          <t>116.6</t>
+        </is>
+      </c>
+      <c r="ACA3" t="inlineStr">
+        <is>
+          <t>116.7</t>
+        </is>
+      </c>
+      <c r="ACB3" t="inlineStr">
+        <is>
+          <t>118.3</t>
+        </is>
+      </c>
+      <c r="ACC3" t="inlineStr">
+        <is>
+          <t>120.7</t>
+        </is>
+      </c>
+      <c r="ACD3" t="inlineStr">
+        <is>
+          <t>115.9</t>
+        </is>
+      </c>
+      <c r="ACE3" t="inlineStr">
+        <is>
+          <t>116.9</t>
+        </is>
+      </c>
+      <c r="ACF3" t="inlineStr">
+        <is>
+          <t>117.0</t>
+        </is>
+      </c>
+      <c r="ACG3" t="inlineStr">
+        <is>
+          <t>114.6</t>
+        </is>
+      </c>
+      <c r="ACH3" t="inlineStr">
+        <is>
+          <t>115.4</t>
+        </is>
+      </c>
+      <c r="ACI3" t="inlineStr">
+        <is>
+          <t>114.4</t>
+        </is>
+      </c>
+      <c r="ACJ3" t="inlineStr">
+        <is>
+          <t>115.6</t>
+        </is>
+      </c>
+      <c r="ACK3" t="inlineStr">
         <is>
           <t>113.1</t>
         </is>
       </c>
-      <c r="AAW3" t="inlineStr">
-        <is>
-          <t>111.4</t>
-        </is>
-      </c>
-      <c r="AAX3" t="inlineStr">
-        <is>
-          <t>111.7</t>
-        </is>
-      </c>
-      <c r="AAY3" t="inlineStr">
-        <is>
-          <t>109.6</t>
-        </is>
-      </c>
-      <c r="AAZ3" t="inlineStr">
-        <is>
-          <t>112.1</t>
-        </is>
-      </c>
-      <c r="ABA3" t="inlineStr">
-        <is>
-          <t>110.9</t>
-        </is>
-      </c>
-      <c r="ABB3" t="inlineStr">
-        <is>
-          <t>111.3</t>
-        </is>
-      </c>
-      <c r="ABC3" t="inlineStr">
-        <is>
-          <t>107.9</t>
-        </is>
-      </c>
-      <c r="ABD3" t="inlineStr">
-        <is>
-          <t>111.4</t>
-        </is>
-      </c>
-      <c r="ABE3" t="inlineStr">
-        <is>
-          <t>112.1</t>
-        </is>
-      </c>
-      <c r="ABF3" t="inlineStr">
-        <is>
-          <t>108.9</t>
-        </is>
-      </c>
-      <c r="ABG3" t="inlineStr">
-        <is>
-          <t>110.4</t>
-        </is>
-      </c>
-      <c r="ABH3" t="inlineStr">
-        <is>
-          <t>112.1</t>
-        </is>
-      </c>
-      <c r="ABI3" t="inlineStr">
-        <is>
-          <t>109.9</t>
-        </is>
-      </c>
-      <c r="ABJ3" t="inlineStr">
-        <is>
-          <t>107.2</t>
-        </is>
-      </c>
-      <c r="ABK3" t="inlineStr">
-        <is>
-          <t>114.0</t>
-        </is>
-      </c>
-      <c r="ABL3" t="inlineStr">
-        <is>
-          <t>115.2</t>
-        </is>
-      </c>
-      <c r="ABM3" t="inlineStr">
-        <is>
-          <t>113.3</t>
-        </is>
-      </c>
-      <c r="ABN3" t="inlineStr">
-        <is>
-          <t>115.7</t>
-        </is>
-      </c>
-      <c r="ABO3" t="inlineStr">
-        <is>
-          <t>114.0</t>
-        </is>
-      </c>
-      <c r="ABP3" t="inlineStr">
+      <c r="ACL3" t="inlineStr">
+        <is>
+          <t>112.6</t>
+        </is>
+      </c>
+      <c r="ACM3" t="inlineStr">
+        <is>
+          <t>115.0</t>
+        </is>
+      </c>
+      <c r="ACN3" t="inlineStr">
         <is>
           <t>115.1</t>
         </is>
       </c>
-      <c r="ABQ3" t="inlineStr">
+      <c r="ACO3" t="inlineStr">
+        <is>
+          <t>117.2</t>
+        </is>
+      </c>
+      <c r="ACP3" t="inlineStr">
+        <is>
+          <t>113.1</t>
+        </is>
+      </c>
+      <c r="ACQ3" t="inlineStr">
+        <is>
+          <t>116.4</t>
+        </is>
+      </c>
+      <c r="ACR3" t="inlineStr">
+        <is>
+          <t>118.2</t>
+        </is>
+      </c>
+      <c r="ACS3" t="inlineStr">
+        <is>
+          <t>119.5</t>
+        </is>
+      </c>
+      <c r="ACT3" t="inlineStr">
         <is>
           <t>118.3</t>
         </is>
       </c>
-      <c r="ABR3" t="inlineStr">
-        <is>
-          <t>113.5</t>
-        </is>
-      </c>
-      <c r="ABS3" t="inlineStr">
-        <is>
-          <t>113.5</t>
-        </is>
-      </c>
-      <c r="ABT3" t="inlineStr">
-        <is>
-          <t>114.7</t>
-        </is>
-      </c>
-      <c r="ABU3" t="inlineStr">
-        <is>
-          <t>115.1</t>
-        </is>
-      </c>
-      <c r="ABV3" t="inlineStr">
-        <is>
-          <t>115.0</t>
-        </is>
-      </c>
-      <c r="ABW3" t="inlineStr">
-        <is>
-          <t>115.5</t>
-        </is>
-      </c>
-      <c r="ABX3" t="inlineStr">
-        <is>
-          <t>116.4</t>
-        </is>
-      </c>
-      <c r="ABY3" t="inlineStr">
-        <is>
-          <t>115.9</t>
-        </is>
-      </c>
-      <c r="ABZ3" t="inlineStr">
-        <is>
-          <t>116.6</t>
-        </is>
-      </c>
-      <c r="ACA3" t="inlineStr">
-        <is>
-          <t>116.7</t>
-        </is>
-      </c>
-      <c r="ACB3" t="inlineStr">
-        <is>
-          <t>118.3</t>
-        </is>
-      </c>
-      <c r="ACC3" t="inlineStr">
-        <is>
-          <t>120.7</t>
-        </is>
-      </c>
-      <c r="ACD3" t="inlineStr">
-        <is>
-          <t>115.9</t>
-        </is>
-      </c>
-      <c r="ACE3" t="inlineStr">
-        <is>
-          <t>116.9</t>
-        </is>
-      </c>
-      <c r="ACF3" t="inlineStr">
-        <is>
-          <t>117.0</t>
-        </is>
-      </c>
-      <c r="ACG3" t="inlineStr">
-        <is>
-          <t>114.6</t>
-        </is>
-      </c>
-      <c r="ACH3" t="inlineStr">
-        <is>
-          <t>115.4</t>
-        </is>
-      </c>
-      <c r="ACI3" t="inlineStr">
-        <is>
-          <t>114.4</t>
-        </is>
-      </c>
-      <c r="ACJ3" t="inlineStr">
-        <is>
-          <t>115.6</t>
-        </is>
-      </c>
-      <c r="ACK3" t="inlineStr">
-        <is>
-          <t>113.1</t>
-        </is>
-      </c>
-      <c r="ACL3" t="inlineStr">
-        <is>
-          <t>112.6</t>
-        </is>
-      </c>
-      <c r="ACM3" t="inlineStr">
-        <is>
-          <t>115.0</t>
-        </is>
-      </c>
-      <c r="ACN3" t="inlineStr">
-        <is>
-          <t>115.1</t>
-        </is>
-      </c>
-      <c r="ACO3" t="inlineStr">
-        <is>
-          <t>117.2</t>
-        </is>
-      </c>
-      <c r="ACP3" t="inlineStr">
-        <is>
-          <t>113.1</t>
-        </is>
-      </c>
-      <c r="ACQ3" t="inlineStr">
-        <is>
-          <t>116.4</t>
-        </is>
-      </c>
-      <c r="ACR3" t="inlineStr">
-        <is>
-          <t>118.2</t>
-        </is>
-      </c>
-      <c r="ACS3" t="inlineStr">
-        <is>
-          <t>119.5</t>
-        </is>
-      </c>
-      <c r="ACT3" t="inlineStr">
-        <is>
-          <t>118.3</t>
-        </is>
-      </c>
       <c r="ACU3" t="inlineStr">
         <is>
           <t>119.6</t>
@@ -9217,6 +9199,21 @@
       <c r="ACY3" t="inlineStr">
         <is>
           <t>125.3</t>
+        </is>
+      </c>
+      <c r="ACZ3" t="inlineStr">
+        <is>
+          <t>126.0</t>
+        </is>
+      </c>
+      <c r="ADA3" t="inlineStr">
+        <is>
+          <t>131.6</t>
+        </is>
+      </c>
+      <c r="ADB3" t="inlineStr">
+        <is>
+          <t>130.6</t>
         </is>
       </c>
     </row>
@@ -11350,354 +11347,345 @@
       <c r="AAG4" t="n">
         <v>102.7</v>
       </c>
-      <c r="AAH4" t="inlineStr">
+      <c r="AAH4" t="n">
+        <v>101</v>
+      </c>
+      <c r="AAI4" t="n">
+        <v>101.6</v>
+      </c>
+      <c r="AAJ4" t="n">
+        <v>103.7</v>
+      </c>
+      <c r="AAK4" t="n">
+        <v>102.6</v>
+      </c>
+      <c r="AAL4" t="n">
+        <v>103.8</v>
+      </c>
+      <c r="AAM4" t="n">
+        <v>103.4</v>
+      </c>
+      <c r="AAN4" t="n">
+        <v>102.4</v>
+      </c>
+      <c r="AAO4" t="n">
+        <v>103.7</v>
+      </c>
+      <c r="AAP4" t="n">
+        <v>102.3</v>
+      </c>
+      <c r="AAQ4" t="n">
+        <v>101</v>
+      </c>
+      <c r="AAR4" t="n">
+        <v>101.2</v>
+      </c>
+      <c r="AAS4" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="AAT4" t="inlineStr">
+        <is>
+          <t>97.4</t>
+        </is>
+      </c>
+      <c r="AAU4" t="inlineStr">
+        <is>
+          <t>99.6</t>
+        </is>
+      </c>
+      <c r="AAV4" t="inlineStr">
+        <is>
+          <t>99.7</t>
+        </is>
+      </c>
+      <c r="AAW4" t="inlineStr">
+        <is>
+          <t>99.9</t>
+        </is>
+      </c>
+      <c r="AAX4" t="inlineStr">
+        <is>
+          <t>100.8</t>
+        </is>
+      </c>
+      <c r="AAY4" t="inlineStr">
+        <is>
+          <t>100.1</t>
+        </is>
+      </c>
+      <c r="AAZ4" t="inlineStr">
+        <is>
+          <t>101.8</t>
+        </is>
+      </c>
+      <c r="ABA4" t="inlineStr">
+        <is>
+          <t>101.6</t>
+        </is>
+      </c>
+      <c r="ABB4" t="inlineStr">
+        <is>
+          <t>103.1</t>
+        </is>
+      </c>
+      <c r="ABC4" t="inlineStr">
+        <is>
+          <t>98.4</t>
+        </is>
+      </c>
+      <c r="ABD4" t="inlineStr">
+        <is>
+          <t>98.4</t>
+        </is>
+      </c>
+      <c r="ABE4" t="inlineStr">
+        <is>
+          <t>98.8</t>
+        </is>
+      </c>
+      <c r="ABF4" t="inlineStr">
+        <is>
+          <t>96.7</t>
+        </is>
+      </c>
+      <c r="ABG4" t="inlineStr">
+        <is>
+          <t>100.2</t>
+        </is>
+      </c>
+      <c r="ABH4" t="inlineStr">
+        <is>
+          <t>100.4</t>
+        </is>
+      </c>
+      <c r="ABI4" t="inlineStr">
+        <is>
+          <t>98.7</t>
+        </is>
+      </c>
+      <c r="ABJ4" t="inlineStr">
+        <is>
+          <t>95.1</t>
+        </is>
+      </c>
+      <c r="ABK4" t="inlineStr">
+        <is>
+          <t>99.7</t>
+        </is>
+      </c>
+      <c r="ABL4" t="inlineStr">
+        <is>
+          <t>100.4</t>
+        </is>
+      </c>
+      <c r="ABM4" t="inlineStr">
+        <is>
+          <t>99.9</t>
+        </is>
+      </c>
+      <c r="ABN4" t="inlineStr">
+        <is>
+          <t>98.3</t>
+        </is>
+      </c>
+      <c r="ABO4" t="inlineStr">
+        <is>
+          <t>97.1</t>
+        </is>
+      </c>
+      <c r="ABP4" t="inlineStr">
+        <is>
+          <t>97.7</t>
+        </is>
+      </c>
+      <c r="ABQ4" t="inlineStr">
+        <is>
+          <t>99.1</t>
+        </is>
+      </c>
+      <c r="ABR4" t="inlineStr">
+        <is>
+          <t>97.8</t>
+        </is>
+      </c>
+      <c r="ABS4" t="inlineStr">
+        <is>
+          <t>98.4</t>
+        </is>
+      </c>
+      <c r="ABT4" t="inlineStr">
+        <is>
+          <t>99.7</t>
+        </is>
+      </c>
+      <c r="ABU4" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="ABV4" t="inlineStr">
+        <is>
+          <t>99.5</t>
+        </is>
+      </c>
+      <c r="ABW4" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="ABX4" t="inlineStr">
+        <is>
+          <t>101.8</t>
+        </is>
+      </c>
+      <c r="ABY4" t="inlineStr">
+        <is>
+          <t>100.5</t>
+        </is>
+      </c>
+      <c r="ABZ4" t="inlineStr">
+        <is>
+          <t>100.4</t>
+        </is>
+      </c>
+      <c r="ACA4" t="inlineStr">
+        <is>
+          <t>97.5</t>
+        </is>
+      </c>
+      <c r="ACB4" t="inlineStr">
+        <is>
+          <t>98.9</t>
+        </is>
+      </c>
+      <c r="ACC4" t="inlineStr">
+        <is>
+          <t>99.7</t>
+        </is>
+      </c>
+      <c r="ACD4" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="ACE4" t="inlineStr">
+        <is>
+          <t>103.5</t>
+        </is>
+      </c>
+      <c r="ACF4" t="inlineStr">
+        <is>
+          <t>99.8</t>
+        </is>
+      </c>
+      <c r="ACG4" t="inlineStr">
+        <is>
+          <t>101.2</t>
+        </is>
+      </c>
+      <c r="ACH4" t="inlineStr">
+        <is>
+          <t>101.9</t>
+        </is>
+      </c>
+      <c r="ACI4" t="inlineStr">
+        <is>
+          <t>100.7</t>
+        </is>
+      </c>
+      <c r="ACJ4" t="inlineStr">
+        <is>
+          <t>103.7</t>
+        </is>
+      </c>
+      <c r="ACK4" t="inlineStr">
         <is>
           <t>101.0</t>
         </is>
       </c>
-      <c r="AAI4" t="inlineStr">
-        <is>
-          <t>101.6</t>
-        </is>
-      </c>
-      <c r="AAJ4" t="inlineStr">
-        <is>
-          <t>103.7</t>
-        </is>
-      </c>
-      <c r="AAK4" t="inlineStr">
-        <is>
-          <t>102.6</t>
-        </is>
-      </c>
-      <c r="AAL4" t="inlineStr">
-        <is>
-          <t>103.8</t>
-        </is>
-      </c>
-      <c r="AAM4" t="inlineStr">
-        <is>
-          <t>103.4</t>
-        </is>
-      </c>
-      <c r="AAN4" t="inlineStr">
-        <is>
-          <t>102.4</t>
-        </is>
-      </c>
-      <c r="AAO4" t="inlineStr">
-        <is>
-          <t>103.7</t>
-        </is>
-      </c>
-      <c r="AAP4" t="inlineStr">
-        <is>
-          <t>102.3</t>
-        </is>
-      </c>
-      <c r="AAQ4" t="inlineStr">
-        <is>
-          <t>101.0</t>
-        </is>
-      </c>
-      <c r="AAR4" t="inlineStr">
-        <is>
-          <t>101.2</t>
-        </is>
-      </c>
-      <c r="AAS4" t="inlineStr">
-        <is>
-          <t>100.4</t>
-        </is>
-      </c>
-      <c r="AAT4" t="inlineStr">
-        <is>
-          <t>97.4</t>
-        </is>
-      </c>
-      <c r="AAU4" t="inlineStr">
-        <is>
-          <t>99.6</t>
-        </is>
-      </c>
-      <c r="AAV4" t="inlineStr">
+      <c r="ACL4" t="inlineStr">
+        <is>
+          <t>99.9</t>
+        </is>
+      </c>
+      <c r="ACM4" t="inlineStr">
+        <is>
+          <t>101.7</t>
+        </is>
+      </c>
+      <c r="ACN4" t="inlineStr">
+        <is>
+          <t>99.4</t>
+        </is>
+      </c>
+      <c r="ACO4" t="inlineStr">
+        <is>
+          <t>99.2</t>
+        </is>
+      </c>
+      <c r="ACP4" t="inlineStr">
+        <is>
+          <t>99.4</t>
+        </is>
+      </c>
+      <c r="ACQ4" t="inlineStr">
         <is>
           <t>99.7</t>
         </is>
       </c>
-      <c r="AAW4" t="inlineStr">
-        <is>
-          <t>99.9</t>
-        </is>
-      </c>
-      <c r="AAX4" t="inlineStr">
-        <is>
-          <t>100.8</t>
-        </is>
-      </c>
-      <c r="AAY4" t="inlineStr">
-        <is>
-          <t>100.1</t>
-        </is>
-      </c>
-      <c r="AAZ4" t="inlineStr">
-        <is>
-          <t>101.8</t>
-        </is>
-      </c>
-      <c r="ABA4" t="inlineStr">
-        <is>
-          <t>101.6</t>
-        </is>
-      </c>
-      <c r="ABB4" t="inlineStr">
-        <is>
-          <t>103.1</t>
-        </is>
-      </c>
-      <c r="ABC4" t="inlineStr">
+      <c r="ACR4" t="inlineStr">
+        <is>
+          <t>98.2</t>
+        </is>
+      </c>
+      <c r="ACS4" t="inlineStr">
+        <is>
+          <t>99.2</t>
+        </is>
+      </c>
+      <c r="ACT4" t="inlineStr">
+        <is>
+          <t>96.8</t>
+        </is>
+      </c>
+      <c r="ACU4" t="inlineStr">
+        <is>
+          <t>98.8</t>
+        </is>
+      </c>
+      <c r="ACV4" t="inlineStr">
+        <is>
+          <t>101.1</t>
+        </is>
+      </c>
+      <c r="ACW4" t="inlineStr">
+        <is>
+          <t>97.9</t>
+        </is>
+      </c>
+      <c r="ACX4" t="inlineStr">
+        <is>
+          <t>96.1</t>
+        </is>
+      </c>
+      <c r="ACY4" t="inlineStr">
+        <is>
+          <t>93.2</t>
+        </is>
+      </c>
+      <c r="ACZ4" t="inlineStr">
+        <is>
+          <t>93.1</t>
+        </is>
+      </c>
+      <c r="ADA4" t="inlineStr">
+        <is>
+          <t>97.1</t>
+        </is>
+      </c>
+      <c r="ADB4" t="inlineStr">
         <is>
           <t>98.4</t>
-        </is>
-      </c>
-      <c r="ABD4" t="inlineStr">
-        <is>
-          <t>98.4</t>
-        </is>
-      </c>
-      <c r="ABE4" t="inlineStr">
-        <is>
-          <t>98.8</t>
-        </is>
-      </c>
-      <c r="ABF4" t="inlineStr">
-        <is>
-          <t>96.7</t>
-        </is>
-      </c>
-      <c r="ABG4" t="inlineStr">
-        <is>
-          <t>100.2</t>
-        </is>
-      </c>
-      <c r="ABH4" t="inlineStr">
-        <is>
-          <t>100.4</t>
-        </is>
-      </c>
-      <c r="ABI4" t="inlineStr">
-        <is>
-          <t>98.7</t>
-        </is>
-      </c>
-      <c r="ABJ4" t="inlineStr">
-        <is>
-          <t>95.1</t>
-        </is>
-      </c>
-      <c r="ABK4" t="inlineStr">
-        <is>
-          <t>99.7</t>
-        </is>
-      </c>
-      <c r="ABL4" t="inlineStr">
-        <is>
-          <t>100.4</t>
-        </is>
-      </c>
-      <c r="ABM4" t="inlineStr">
-        <is>
-          <t>99.9</t>
-        </is>
-      </c>
-      <c r="ABN4" t="inlineStr">
-        <is>
-          <t>98.3</t>
-        </is>
-      </c>
-      <c r="ABO4" t="inlineStr">
-        <is>
-          <t>97.1</t>
-        </is>
-      </c>
-      <c r="ABP4" t="inlineStr">
-        <is>
-          <t>97.7</t>
-        </is>
-      </c>
-      <c r="ABQ4" t="inlineStr">
-        <is>
-          <t>99.1</t>
-        </is>
-      </c>
-      <c r="ABR4" t="inlineStr">
-        <is>
-          <t>97.8</t>
-        </is>
-      </c>
-      <c r="ABS4" t="inlineStr">
-        <is>
-          <t>98.4</t>
-        </is>
-      </c>
-      <c r="ABT4" t="inlineStr">
-        <is>
-          <t>99.7</t>
-        </is>
-      </c>
-      <c r="ABU4" t="inlineStr">
-        <is>
-          <t>99.0</t>
-        </is>
-      </c>
-      <c r="ABV4" t="inlineStr">
-        <is>
-          <t>99.5</t>
-        </is>
-      </c>
-      <c r="ABW4" t="inlineStr">
-        <is>
-          <t>98.0</t>
-        </is>
-      </c>
-      <c r="ABX4" t="inlineStr">
-        <is>
-          <t>101.8</t>
-        </is>
-      </c>
-      <c r="ABY4" t="inlineStr">
-        <is>
-          <t>100.5</t>
-        </is>
-      </c>
-      <c r="ABZ4" t="inlineStr">
-        <is>
-          <t>100.4</t>
-        </is>
-      </c>
-      <c r="ACA4" t="inlineStr">
-        <is>
-          <t>97.5</t>
-        </is>
-      </c>
-      <c r="ACB4" t="inlineStr">
-        <is>
-          <t>98.9</t>
-        </is>
-      </c>
-      <c r="ACC4" t="inlineStr">
-        <is>
-          <t>99.7</t>
-        </is>
-      </c>
-      <c r="ACD4" t="inlineStr">
-        <is>
-          <t>98.0</t>
-        </is>
-      </c>
-      <c r="ACE4" t="inlineStr">
-        <is>
-          <t>103.5</t>
-        </is>
-      </c>
-      <c r="ACF4" t="inlineStr">
-        <is>
-          <t>99.8</t>
-        </is>
-      </c>
-      <c r="ACG4" t="inlineStr">
-        <is>
-          <t>101.2</t>
-        </is>
-      </c>
-      <c r="ACH4" t="inlineStr">
-        <is>
-          <t>101.9</t>
-        </is>
-      </c>
-      <c r="ACI4" t="inlineStr">
-        <is>
-          <t>100.7</t>
-        </is>
-      </c>
-      <c r="ACJ4" t="inlineStr">
-        <is>
-          <t>103.7</t>
-        </is>
-      </c>
-      <c r="ACK4" t="inlineStr">
-        <is>
-          <t>101.0</t>
-        </is>
-      </c>
-      <c r="ACL4" t="inlineStr">
-        <is>
-          <t>99.9</t>
-        </is>
-      </c>
-      <c r="ACM4" t="inlineStr">
-        <is>
-          <t>101.7</t>
-        </is>
-      </c>
-      <c r="ACN4" t="inlineStr">
-        <is>
-          <t>99.4</t>
-        </is>
-      </c>
-      <c r="ACO4" t="inlineStr">
-        <is>
-          <t>99.2</t>
-        </is>
-      </c>
-      <c r="ACP4" t="inlineStr">
-        <is>
-          <t>99.4</t>
-        </is>
-      </c>
-      <c r="ACQ4" t="inlineStr">
-        <is>
-          <t>99.7</t>
-        </is>
-      </c>
-      <c r="ACR4" t="inlineStr">
-        <is>
-          <t>98.2</t>
-        </is>
-      </c>
-      <c r="ACS4" t="inlineStr">
-        <is>
-          <t>99.2</t>
-        </is>
-      </c>
-      <c r="ACT4" t="inlineStr">
-        <is>
-          <t>96.8</t>
-        </is>
-      </c>
-      <c r="ACU4" t="inlineStr">
-        <is>
-          <t>98.8</t>
-        </is>
-      </c>
-      <c r="ACV4" t="inlineStr">
-        <is>
-          <t>101.1</t>
-        </is>
-      </c>
-      <c r="ACW4" t="inlineStr">
-        <is>
-          <t>97.9</t>
-        </is>
-      </c>
-      <c r="ACX4" t="inlineStr">
-        <is>
-          <t>96.1</t>
-        </is>
-      </c>
-      <c r="ACY4" t="inlineStr">
-        <is>
-          <t>93.2</t>
         </is>
       </c>
     </row>
